--- a/ExpoInsight-v_1.xlsx
+++ b/ExpoInsight-v_1.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExposureLimits" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AllowedExposureHours" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Simulation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkerHealth" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,10 +23,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -78,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -92,7 +92,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1438,11 +1441,11 @@
           <t>Z001</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="6" t="n">
         <v>45684.34027777778</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>45684.5995553668</v>
+      <c r="E4" s="6" t="n">
+        <v>45684.59955537037</v>
       </c>
     </row>
     <row r="5">
@@ -1459,11 +1462,11 @@
           <t>Z001</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="6" t="n">
         <v>45684.33194444444</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>45684.60235209893</v>
+      <c r="E5" s="6" t="n">
+        <v>45684.60235209491</v>
       </c>
     </row>
     <row r="6">
@@ -1480,11 +1483,11 @@
           <t>Z001</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="6" t="n">
         <v>45684.32916666667</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>45684.64053926785</v>
+      <c r="E6" s="6" t="n">
+        <v>45684.64053927083</v>
       </c>
     </row>
     <row r="7">
@@ -1501,11 +1504,11 @@
           <t>Z001</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="6" t="n">
         <v>45684.33819444444</v>
       </c>
-      <c r="E7" s="5" t="n">
-        <v>45684.59543934716</v>
+      <c r="E7" s="6" t="n">
+        <v>45684.59543935186</v>
       </c>
     </row>
     <row r="8">
@@ -1522,11 +1525,11 @@
           <t>Z002</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="6" t="n">
         <v>45684.33541666667</v>
       </c>
-      <c r="E8" s="5" t="n">
-        <v>45684.58806522329</v>
+      <c r="E8" s="6" t="n">
+        <v>45684.5880652199</v>
       </c>
     </row>
     <row r="9">
@@ -1543,11 +1546,11 @@
           <t>Z002</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="6" t="n">
         <v>45684.32777777778</v>
       </c>
-      <c r="E9" s="5" t="n">
-        <v>45684.59599760902</v>
+      <c r="E9" s="6" t="n">
+        <v>45684.59599760416</v>
       </c>
     </row>
     <row r="10">
@@ -1564,11 +1567,11 @@
           <t>Z002</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="6" t="n">
         <v>45684.3375</v>
       </c>
-      <c r="E10" s="5" t="n">
-        <v>45684.63766822742</v>
+      <c r="E10" s="6" t="n">
+        <v>45684.63766822917</v>
       </c>
     </row>
     <row r="11">
@@ -1585,11 +1588,11 @@
           <t>Z003</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="6" t="n">
         <v>45684.33819444444</v>
       </c>
-      <c r="E11" s="5" t="n">
-        <v>45684.60476424867</v>
+      <c r="E11" s="6" t="n">
+        <v>45684.60476424768</v>
       </c>
     </row>
     <row r="12">
@@ -1606,11 +1609,11 @@
           <t>Z003</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="6" t="n">
         <v>45684.34027777778</v>
       </c>
-      <c r="E12" s="5" t="n">
-        <v>45684.64872152558</v>
+      <c r="E12" s="6" t="n">
+        <v>45684.64872152778</v>
       </c>
     </row>
     <row r="13">
@@ -1627,11 +1630,11 @@
           <t>Z003</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="6" t="n">
         <v>45684.33541666667</v>
       </c>
-      <c r="E13" s="5" t="n">
-        <v>45684.60378671851</v>
+      <c r="E13" s="6" t="n">
+        <v>45684.60378671296</v>
       </c>
     </row>
     <row r="14">
@@ -1648,11 +1651,11 @@
           <t>Z004</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="6" t="n">
         <v>45684.33888888889</v>
       </c>
-      <c r="E14" s="5" t="n">
-        <v>45684.6120714479</v>
+      <c r="E14" s="6" t="n">
+        <v>45684.61207144676</v>
       </c>
     </row>
     <row r="15">
@@ -1669,11 +1672,11 @@
           <t>Z004</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="6" t="n">
         <v>45684.32638888889</v>
       </c>
-      <c r="E15" s="5" t="n">
-        <v>45684.63962283615</v>
+      <c r="E15" s="6" t="n">
+        <v>45684.63962283565</v>
       </c>
     </row>
     <row r="16">
@@ -1690,11 +1693,11 @@
           <t>Z004</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="6" t="n">
         <v>45684.32986111111</v>
       </c>
-      <c r="E16" s="5" t="n">
-        <v>45684.63803939403</v>
+      <c r="E16" s="6" t="n">
+        <v>45684.63803939815</v>
       </c>
     </row>
     <row r="17">
@@ -1711,11 +1714,11 @@
           <t>Z004</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
-      <c r="E17" s="5" t="n">
-        <v>45684.60648927847</v>
+      <c r="E17" s="6" t="n">
+        <v>45684.60648928241</v>
       </c>
     </row>
     <row r="18">
@@ -1732,11 +1735,11 @@
           <t>Z004</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="6" t="n">
         <v>45684.33055555556</v>
       </c>
-      <c r="E18" s="5" t="n">
-        <v>45684.66032331157</v>
+      <c r="E18" s="6" t="n">
+        <v>45684.66032331019</v>
       </c>
     </row>
     <row r="19">
@@ -1753,11 +1756,11 @@
           <t>Z005</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
-      <c r="E19" s="5" t="n">
-        <v>45684.59185085638</v>
+      <c r="E19" s="6" t="n">
+        <v>45684.59185085648</v>
       </c>
     </row>
     <row r="20">
@@ -1774,11 +1777,11 @@
           <t>Z005</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="6" t="n">
         <v>45684.33472222222</v>
       </c>
-      <c r="E20" s="5" t="n">
-        <v>45684.59278192029</v>
+      <c r="E20" s="6" t="n">
+        <v>45684.5927819213</v>
       </c>
     </row>
     <row r="21">
@@ -1795,11 +1798,11 @@
           <t>Z005</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="6" t="n">
         <v>45684.33402777778</v>
       </c>
-      <c r="E21" s="5" t="n">
-        <v>45684.6343382804</v>
+      <c r="E21" s="6" t="n">
+        <v>45684.63433827546</v>
       </c>
     </row>
     <row r="22">
@@ -1816,11 +1819,11 @@
           <t>Z006</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="6" t="n">
         <v>45684.32708333333</v>
       </c>
-      <c r="E22" s="5" t="n">
-        <v>45684.63789431556</v>
+      <c r="E22" s="6" t="n">
+        <v>45684.63789431713</v>
       </c>
     </row>
     <row r="23">
@@ -1837,11 +1840,11 @@
           <t>Z006</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="6" t="n">
         <v>45684.33819444444</v>
       </c>
-      <c r="E23" s="5" t="n">
-        <v>45684.59859662469</v>
+      <c r="E23" s="6" t="n">
+        <v>45684.59859662037</v>
       </c>
     </row>
     <row r="24">
@@ -1858,11 +1861,11 @@
           <t>Z006</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="6" t="n">
         <v>45684.33472222222</v>
       </c>
-      <c r="E24" s="5" t="n">
-        <v>45684.59128890539</v>
+      <c r="E24" s="6" t="n">
+        <v>45684.59128890046</v>
       </c>
     </row>
     <row r="25">
@@ -1879,11 +1882,11 @@
           <t>Z006</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="6" t="n">
         <v>45684.33263888889</v>
       </c>
-      <c r="E25" s="5" t="n">
-        <v>45684.65175594425</v>
+      <c r="E25" s="6" t="n">
+        <v>45684.65175594907</v>
       </c>
     </row>
     <row r="26">
@@ -1900,11 +1903,11 @@
           <t>Z001</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
-        <v>45684.47808662539</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>45684.52530884762</v>
+      <c r="D26" s="6" t="n">
+        <v>45684.47808662037</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>45684.5253088426</v>
       </c>
     </row>
     <row r="27">
@@ -1921,11 +1924,11 @@
           <t>Z001</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
-        <v>45684.47122535755</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>45684.53372535755</v>
+      <c r="D27" s="6" t="n">
+        <v>45684.47122535879</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>45684.53372535879</v>
       </c>
     </row>
     <row r="28">
@@ -1942,11 +1945,11 @@
           <t>Z002</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
-        <v>45684.3865925248</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>45684.44700919147</v>
+      <c r="D28" s="6" t="n">
+        <v>45684.38659252315</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>45684.44700918982</v>
       </c>
     </row>
     <row r="29">
@@ -1963,11 +1966,11 @@
           <t>Z002</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
-        <v>45684.41298304594</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>45684.45673304594</v>
+      <c r="D29" s="6" t="n">
+        <v>45684.41298304398</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>45684.45673304398</v>
       </c>
     </row>
     <row r="30">
@@ -1984,11 +1987,11 @@
           <t>Z003</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
-        <v>45684.53920358678</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>45684.580175809</v>
+      <c r="D30" s="6" t="n">
+        <v>45684.53920358796</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>45684.58017581019</v>
       </c>
     </row>
     <row r="31">
@@ -2005,11 +2008,11 @@
           <t>Z003</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
-        <v>45684.51941394446</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>45684.56733061112</v>
+      <c r="D31" s="6" t="n">
+        <v>45684.51941394676</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>45684.56733061343</v>
       </c>
     </row>
     <row r="32">
@@ -2026,11 +2029,11 @@
           <t>Z004</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
-        <v>45684.42132893385</v>
-      </c>
-      <c r="E32" s="5" t="n">
-        <v>45684.48035671163</v>
+      <c r="D32" s="6" t="n">
+        <v>45684.42132893518</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>45684.48035671296</v>
       </c>
     </row>
     <row r="33">
@@ -2047,11 +2050,11 @@
           <t>Z004</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
-        <v>45684.51401840444</v>
-      </c>
-      <c r="E33" s="5" t="n">
-        <v>45684.55221284889</v>
+      <c r="D33" s="6" t="n">
+        <v>45684.51401840278</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>45684.55221284722</v>
       </c>
     </row>
     <row r="34">
@@ -2068,11 +2071,11 @@
           <t>Z005</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
-        <v>45684.43669682785</v>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>45684.47697460563</v>
+      <c r="D34" s="6" t="n">
+        <v>45684.43669682871</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>45684.47697460648</v>
       </c>
     </row>
     <row r="35">
@@ -2089,11 +2092,11 @@
           <t>Z005</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
-        <v>45684.4866958624</v>
-      </c>
-      <c r="E35" s="5" t="n">
-        <v>45684.54850141795</v>
+      <c r="D35" s="6" t="n">
+        <v>45684.48669586806</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>45684.54850142361</v>
       </c>
     </row>
     <row r="36">
@@ -2110,11 +2113,11 @@
           <t>Z006</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
-        <v>45684.53110909795</v>
-      </c>
-      <c r="E36" s="5" t="n">
-        <v>45684.59083132017</v>
+      <c r="D36" s="6" t="n">
+        <v>45684.53110909722</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>45684.59083131944</v>
       </c>
     </row>
     <row r="37">
@@ -2131,11 +2134,11 @@
           <t>Z006</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n">
-        <v>45684.38690041826</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>45684.44592819604</v>
+      <c r="D37" s="6" t="n">
+        <v>45684.38690041667</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>45684.44592819444</v>
       </c>
     </row>
     <row r="38">
@@ -2152,11 +2155,11 @@
           <t>Z001</t>
         </is>
       </c>
-      <c r="D38" s="5" t="n">
-        <v>45684.43092822068</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>45684.51426155402</v>
+      <c r="D38" s="6" t="n">
+        <v>45684.43092821759</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>45684.51426155092</v>
       </c>
     </row>
     <row r="39">
@@ -2173,11 +2176,11 @@
           <t>Z002</t>
         </is>
       </c>
-      <c r="D39" s="5" t="n">
-        <v>45684.47742723316</v>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>45684.56076056649</v>
+      <c r="D39" s="6" t="n">
+        <v>45684.4774272338</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>45684.56076056713</v>
       </c>
     </row>
     <row r="40">
@@ -2194,11 +2197,11 @@
           <t>Z004</t>
         </is>
       </c>
-      <c r="D40" s="5" t="n">
-        <v>45684.43028354114</v>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>45684.51361687448</v>
+      <c r="D40" s="6" t="n">
+        <v>45684.43028354167</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>45684.513616875</v>
       </c>
     </row>
   </sheetData>
@@ -2292,7 +2295,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -2318,7 +2321,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -2344,7 +2347,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -2370,7 +2373,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -2396,7 +2399,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -2422,7 +2425,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -2448,7 +2451,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -2474,7 +2477,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -2500,7 +2503,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -2526,7 +2529,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -2552,7 +2555,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -2578,7 +2581,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -2604,7 +2607,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -2630,7 +2633,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -2656,7 +2659,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -2682,7 +2685,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -2708,7 +2711,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -2734,7 +2737,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -2760,7 +2763,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -2786,7 +2789,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -2812,7 +2815,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -2838,7 +2841,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -2864,7 +2867,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -2890,7 +2893,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -2916,7 +2919,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -2942,7 +2945,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -2968,7 +2971,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -2994,7 +2997,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -3020,7 +3023,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -3046,7 +3049,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -3072,7 +3075,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -3098,7 +3101,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -3124,7 +3127,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -3150,7 +3153,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -3176,7 +3179,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -3202,7 +3205,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -3228,7 +3231,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -3254,7 +3257,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -3280,7 +3283,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -3306,7 +3309,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -3332,7 +3335,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -3358,7 +3361,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -3384,7 +3387,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -3410,7 +3413,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n">
+      <c r="F47" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -3436,7 +3439,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n">
+      <c r="F48" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -3462,7 +3465,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F49" s="5" t="n">
+      <c r="F49" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -3488,7 +3491,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -3514,7 +3517,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -3540,7 +3543,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F52" s="5" t="n">
+      <c r="F52" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -3566,7 +3569,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F53" s="5" t="n">
+      <c r="F53" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -3592,7 +3595,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n">
+      <c r="F54" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -3618,7 +3621,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F55" s="5" t="n">
+      <c r="F55" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -3644,7 +3647,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F56" s="5" t="n">
+      <c r="F56" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -3670,7 +3673,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F57" s="5" t="n">
+      <c r="F57" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -3696,7 +3699,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F58" s="5" t="n">
+      <c r="F58" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -3722,7 +3725,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F59" s="5" t="n">
+      <c r="F59" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -3748,7 +3751,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F60" s="5" t="n">
+      <c r="F60" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -3774,7 +3777,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F61" s="5" t="n">
+      <c r="F61" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -3800,7 +3803,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F62" s="5" t="n">
+      <c r="F62" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -3826,7 +3829,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F63" s="5" t="n">
+      <c r="F63" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -3852,7 +3855,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F64" s="5" t="n">
+      <c r="F64" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -3878,7 +3881,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F65" s="5" t="n">
+      <c r="F65" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -3904,7 +3907,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F66" s="5" t="n">
+      <c r="F66" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -3930,7 +3933,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F67" s="5" t="n">
+      <c r="F67" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -3956,7 +3959,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F68" s="5" t="n">
+      <c r="F68" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -3982,7 +3985,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F69" s="5" t="n">
+      <c r="F69" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -4008,7 +4011,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -4034,7 +4037,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F71" s="5" t="n">
+      <c r="F71" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -4060,7 +4063,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F72" s="5" t="n">
+      <c r="F72" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -4086,7 +4089,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F73" s="5" t="n">
+      <c r="F73" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -4112,7 +4115,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F74" s="5" t="n">
+      <c r="F74" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -4138,7 +4141,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F75" s="5" t="n">
+      <c r="F75" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -4164,7 +4167,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F76" s="5" t="n">
+      <c r="F76" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -4190,7 +4193,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F77" s="5" t="n">
+      <c r="F77" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -4216,7 +4219,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F78" s="5" t="n">
+      <c r="F78" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -4242,7 +4245,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F79" s="5" t="n">
+      <c r="F79" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -4268,7 +4271,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F80" s="5" t="n">
+      <c r="F80" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -4294,7 +4297,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F81" s="5" t="n">
+      <c r="F81" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -4320,7 +4323,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F82" s="5" t="n">
+      <c r="F82" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -4346,7 +4349,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F83" s="5" t="n">
+      <c r="F83" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -4372,7 +4375,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F84" s="5" t="n">
+      <c r="F84" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -4398,7 +4401,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F85" s="5" t="n">
+      <c r="F85" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -4424,7 +4427,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F86" s="5" t="n">
+      <c r="F86" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -4450,7 +4453,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F87" s="5" t="n">
+      <c r="F87" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -4476,7 +4479,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F88" s="5" t="n">
+      <c r="F88" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -4502,7 +4505,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F89" s="5" t="n">
+      <c r="F89" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -4528,7 +4531,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F90" s="5" t="n">
+      <c r="F90" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -4554,7 +4557,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F91" s="5" t="n">
+      <c r="F91" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -4580,7 +4583,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F92" s="5" t="n">
+      <c r="F92" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -4606,7 +4609,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F93" s="5" t="n">
+      <c r="F93" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -4632,7 +4635,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F94" s="5" t="n">
+      <c r="F94" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -4658,7 +4661,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F95" s="5" t="n">
+      <c r="F95" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -4684,7 +4687,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F96" s="5" t="n">
+      <c r="F96" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -4710,7 +4713,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F97" s="5" t="n">
+      <c r="F97" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -4736,7 +4739,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F98" s="5" t="n">
+      <c r="F98" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -4762,7 +4765,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F99" s="5" t="n">
+      <c r="F99" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -4788,7 +4791,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F100" s="5" t="n">
+      <c r="F100" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -4814,7 +4817,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F101" s="5" t="n">
+      <c r="F101" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -4840,7 +4843,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F102" s="5" t="n">
+      <c r="F102" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -4866,7 +4869,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F103" s="5" t="n">
+      <c r="F103" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -4892,7 +4895,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F104" s="5" t="n">
+      <c r="F104" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -4918,7 +4921,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F105" s="5" t="n">
+      <c r="F105" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -4944,7 +4947,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F106" s="5" t="n">
+      <c r="F106" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -4970,7 +4973,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F107" s="5" t="n">
+      <c r="F107" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -4996,7 +4999,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F108" s="5" t="n">
+      <c r="F108" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -5022,7 +5025,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F109" s="5" t="n">
+      <c r="F109" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -5048,7 +5051,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F110" s="5" t="n">
+      <c r="F110" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -5074,7 +5077,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F111" s="5" t="n">
+      <c r="F111" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -5100,7 +5103,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F112" s="5" t="n">
+      <c r="F112" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -5126,7 +5129,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F113" s="5" t="n">
+      <c r="F113" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -5152,7 +5155,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F114" s="5" t="n">
+      <c r="F114" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -5178,7 +5181,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F115" s="5" t="n">
+      <c r="F115" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -5204,7 +5207,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F116" s="5" t="n">
+      <c r="F116" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -5230,7 +5233,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F117" s="5" t="n">
+      <c r="F117" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -5256,7 +5259,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F118" s="5" t="n">
+      <c r="F118" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -5282,7 +5285,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F119" s="5" t="n">
+      <c r="F119" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -5308,7 +5311,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F120" s="5" t="n">
+      <c r="F120" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -5334,7 +5337,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F121" s="5" t="n">
+      <c r="F121" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -5360,7 +5363,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F122" s="5" t="n">
+      <c r="F122" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -5386,7 +5389,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F123" s="5" t="n">
+      <c r="F123" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -5412,7 +5415,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F124" s="5" t="n">
+      <c r="F124" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -5438,7 +5441,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F125" s="5" t="n">
+      <c r="F125" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -5464,7 +5467,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F126" s="5" t="n">
+      <c r="F126" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -5490,7 +5493,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F127" s="5" t="n">
+      <c r="F127" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -5516,7 +5519,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F128" s="5" t="n">
+      <c r="F128" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -5542,7 +5545,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F129" s="5" t="n">
+      <c r="F129" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -5568,7 +5571,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F130" s="5" t="n">
+      <c r="F130" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -5594,7 +5597,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F131" s="5" t="n">
+      <c r="F131" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -5620,7 +5623,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F132" s="5" t="n">
+      <c r="F132" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -5646,7 +5649,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F133" s="5" t="n">
+      <c r="F133" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -5672,7 +5675,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F134" s="5" t="n">
+      <c r="F134" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -5698,7 +5701,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F135" s="5" t="n">
+      <c r="F135" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -5724,7 +5727,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F136" s="5" t="n">
+      <c r="F136" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -5750,7 +5753,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F137" s="5" t="n">
+      <c r="F137" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -5776,7 +5779,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F138" s="5" t="n">
+      <c r="F138" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -5802,7 +5805,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F139" s="5" t="n">
+      <c r="F139" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -5828,7 +5831,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F140" s="5" t="n">
+      <c r="F140" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -5854,7 +5857,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F141" s="5" t="n">
+      <c r="F141" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -5880,7 +5883,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F142" s="5" t="n">
+      <c r="F142" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -5906,7 +5909,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F143" s="5" t="n">
+      <c r="F143" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -5932,7 +5935,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F144" s="5" t="n">
+      <c r="F144" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -5958,7 +5961,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F145" s="5" t="n">
+      <c r="F145" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -5984,7 +5987,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F146" s="5" t="n">
+      <c r="F146" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -6010,7 +6013,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F147" s="5" t="n">
+      <c r="F147" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -6036,7 +6039,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F148" s="5" t="n">
+      <c r="F148" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -6062,7 +6065,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F149" s="5" t="n">
+      <c r="F149" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -6088,7 +6091,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F150" s="5" t="n">
+      <c r="F150" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -6114,7 +6117,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F151" s="5" t="n">
+      <c r="F151" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -6140,7 +6143,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F152" s="5" t="n">
+      <c r="F152" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -6166,7 +6169,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F153" s="5" t="n">
+      <c r="F153" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -6192,7 +6195,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F154" s="5" t="n">
+      <c r="F154" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -6218,7 +6221,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F155" s="5" t="n">
+      <c r="F155" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -6244,7 +6247,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F156" s="5" t="n">
+      <c r="F156" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -6270,7 +6273,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F157" s="5" t="n">
+      <c r="F157" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -6296,7 +6299,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F158" s="5" t="n">
+      <c r="F158" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -6322,7 +6325,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F159" s="5" t="n">
+      <c r="F159" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -6348,7 +6351,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F160" s="5" t="n">
+      <c r="F160" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -6374,7 +6377,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F161" s="5" t="n">
+      <c r="F161" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -6400,7 +6403,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F162" s="5" t="n">
+      <c r="F162" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -6426,7 +6429,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F163" s="5" t="n">
+      <c r="F163" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -6452,7 +6455,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F164" s="5" t="n">
+      <c r="F164" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -6478,7 +6481,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F165" s="5" t="n">
+      <c r="F165" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -6504,7 +6507,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F166" s="5" t="n">
+      <c r="F166" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -6530,7 +6533,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F167" s="5" t="n">
+      <c r="F167" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -6556,7 +6559,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F168" s="5" t="n">
+      <c r="F168" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -6582,7 +6585,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F169" s="5" t="n">
+      <c r="F169" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -6608,7 +6611,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F170" s="5" t="n">
+      <c r="F170" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -6634,7 +6637,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F171" s="5" t="n">
+      <c r="F171" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -6660,7 +6663,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F172" s="5" t="n">
+      <c r="F172" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -6686,7 +6689,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F173" s="5" t="n">
+      <c r="F173" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -6712,7 +6715,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F174" s="5" t="n">
+      <c r="F174" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -6738,7 +6741,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F175" s="5" t="n">
+      <c r="F175" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -6764,7 +6767,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F176" s="5" t="n">
+      <c r="F176" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -6790,7 +6793,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F177" s="5" t="n">
+      <c r="F177" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -6816,7 +6819,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F178" s="5" t="n">
+      <c r="F178" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -6842,7 +6845,7 @@
           <t>ppm</t>
         </is>
       </c>
-      <c r="F179" s="5" t="n">
+      <c r="F179" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -6868,7 +6871,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F180" s="5" t="n">
+      <c r="F180" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -6894,7 +6897,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F181" s="5" t="n">
+      <c r="F181" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -6920,7 +6923,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F182" s="5" t="n">
+      <c r="F182" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -6946,7 +6949,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F183" s="5" t="n">
+      <c r="F183" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -6972,7 +6975,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F184" s="5" t="n">
+      <c r="F184" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -6998,7 +7001,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F185" s="5" t="n">
+      <c r="F185" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -7024,7 +7027,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F186" s="5" t="n">
+      <c r="F186" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -7050,7 +7053,7 @@
           <t>index</t>
         </is>
       </c>
-      <c r="F187" s="5" t="n">
+      <c r="F187" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -7076,7 +7079,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F188" s="5" t="n">
+      <c r="F188" s="6" t="n">
         <v>45684.33333333334</v>
       </c>
     </row>
@@ -7102,7 +7105,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F189" s="5" t="n">
+      <c r="F189" s="6" t="n">
         <v>45684.375</v>
       </c>
     </row>
@@ -7128,7 +7131,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F190" s="5" t="n">
+      <c r="F190" s="6" t="n">
         <v>45684.41666666666</v>
       </c>
     </row>
@@ -7154,7 +7157,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F191" s="5" t="n">
+      <c r="F191" s="6" t="n">
         <v>45684.45833333334</v>
       </c>
     </row>
@@ -7180,7 +7183,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F192" s="5" t="n">
+      <c r="F192" s="6" t="n">
         <v>45684.5</v>
       </c>
     </row>
@@ -7206,7 +7209,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F193" s="5" t="n">
+      <c r="F193" s="6" t="n">
         <v>45684.54166666666</v>
       </c>
     </row>
@@ -7232,7 +7235,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F194" s="5" t="n">
+      <c r="F194" s="6" t="n">
         <v>45684.58333333334</v>
       </c>
     </row>
@@ -7258,7 +7261,7 @@
           <t>dBA</t>
         </is>
       </c>
-      <c r="F195" s="5" t="n">
+      <c r="F195" s="6" t="n">
         <v>45684.625</v>
       </c>
     </row>
@@ -9493,4 +9496,2099 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Worker Health Profile — NCOSH Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Based on: لائحة فحوصات اللياقة المهنية والأمراض غير المعدية</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WorkerID</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Height_cm</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Weight_kg</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BMI</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BMICategory</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FitnessLevel</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>HearingTest</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>LungFunction</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisionTest</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BloodPressure</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>BPCategory</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>LastMedicalExam</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ExamStatus</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>FitnessForDuty</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Restrictions</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NextExamDue</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W001</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>31</v>
+      </c>
+      <c r="C4" t="n">
+        <v>160</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107</v>
+      </c>
+      <c r="E4" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Obese</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>116/86</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Elevated</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Fit with Restrictions</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>High BMI</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2026-04-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W002</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>178</v>
+      </c>
+      <c r="D5" t="n">
+        <v>87</v>
+      </c>
+      <c r="E5" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>124/81</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Elevated</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Fit for Duty</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2026-03-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W003</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>177</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Corrected</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>127/90</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Elevated</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Fit for Duty</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2027-01-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W004</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>182</v>
+      </c>
+      <c r="D7" t="n">
+        <v>87</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>131/68</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Fit with Restrictions</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>High BP</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2026-11-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W005</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>163</v>
+      </c>
+      <c r="D8" t="n">
+        <v>82</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Obese</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial Loss</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>139/82</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Unfit for Duty</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>High BMI; Partial Hearing; High BP</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2026-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W006</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>162</v>
+      </c>
+      <c r="D9" t="n">
+        <v>95</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Obese</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Corrected</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>133/83</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Unfit for Duty</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>High BMI; Hearing Loss; High BP</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2026-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W007</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>28</v>
+      </c>
+      <c r="C10" t="n">
+        <v>161</v>
+      </c>
+      <c r="D10" t="n">
+        <v>102</v>
+      </c>
+      <c r="E10" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Obese</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>124/92</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Elevated</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Fit with Restrictions</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>High BMI; Hearing Loss</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2026-11-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W008</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>168</v>
+      </c>
+      <c r="D11" t="n">
+        <v>89</v>
+      </c>
+      <c r="E11" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Obese</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>123/86</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Elevated</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Fit with Restrictions</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>High BMI</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2026-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W009</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>179</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Obese</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Partial Loss</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>120/79</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Elevated</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Fit with Restrictions</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>High BMI; Partial Hearing</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2026-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W010</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>41</v>
+      </c>
+      <c r="C13" t="n">
+        <v>189</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>28</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>124/91</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Elevated</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Fit for Duty</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2026-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W011</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>44</v>
+      </c>
+      <c r="C14" t="n">
+        <v>172</v>
+      </c>
+      <c r="D14" t="n">
+        <v>77</v>
+      </c>
+      <c r="E14" t="n">
+        <v>26</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Reduced</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>130/71</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Stage 1</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Fit with Restrictions</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Reduced Lung; High BP</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W012</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>55</v>
+      </c>
+      <c r="C15" t="n">
+        <v>172</v>
+      </c>
+      <c r="D15" t="n">
+        <v>101</v>
+      </c>
+      <c r="E15" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Obese</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Unfit</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>125/88</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Elevated</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Unfit for Duty</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>High BMI; Age&gt;50; Low Fitness</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W013</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>58</v>
+      </c>
+      <c r="C16" t="n">
+        <v>168</v>
+      </c>
+      <c r="D16" t="n">
+        <v>107</v>
+      </c>
+      <c r="E16" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Obese</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Partial Loss</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>124/69</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Elevated</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Unfit for Duty</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>High BMI; Partial Hearing; Age&gt;50</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2026-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W014</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>55</v>
+      </c>
+      <c r="C17" t="n">
+        <v>162</v>
+      </c>
+      <c r="D17" t="n">
+        <v>108</v>
+      </c>
+      <c r="E17" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Obese</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>150/70</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Unfit for Duty</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>High BMI; Hearing Loss; High BP; Age&gt;50</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>W015</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>51</v>
+      </c>
+      <c r="C18" t="n">
+        <v>179</v>
+      </c>
+      <c r="D18" t="n">
+        <v>64</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Reduced</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>143/73</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Unfit for Duty</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Reduced Lung; High BP; Age&gt;50</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>W016</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>181</v>
+      </c>
+      <c r="D19" t="n">
+        <v>106</v>
+      </c>
+      <c r="E19" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Obese</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Reduced</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>151/75</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Unfit for Duty</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>High BMI; Reduced Lung; High BP</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2026-11-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>W017</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>173</v>
+      </c>
+      <c r="D20" t="n">
+        <v>70</v>
+      </c>
+      <c r="E20" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Unfit</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>126/81</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Elevated</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Unfit for Duty</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Low Fitness</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2026-10-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>W018</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>56</v>
+      </c>
+      <c r="C21" t="n">
+        <v>189</v>
+      </c>
+      <c r="D21" t="n">
+        <v>66</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Corrected</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>148/71</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Unfit for Duty</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Hearing Loss; High BP; Age&gt;50</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2026-10-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>W019</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>47</v>
+      </c>
+      <c r="C22" t="n">
+        <v>184</v>
+      </c>
+      <c r="D22" t="n">
+        <v>70</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Partial Loss</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>111/68</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Fit with Restrictions</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Partial Hearing</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2026-07-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>W020</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>43</v>
+      </c>
+      <c r="C23" t="n">
+        <v>167</v>
+      </c>
+      <c r="D23" t="n">
+        <v>63</v>
+      </c>
+      <c r="E23" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Partial Loss</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>141/91</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Fit with Restrictions</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Partial Hearing; High BP</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2026-12-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>W021</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>58</v>
+      </c>
+      <c r="C24" t="n">
+        <v>184</v>
+      </c>
+      <c r="D24" t="n">
+        <v>68</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Corrected</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>120/73</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Elevated</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Fit with Restrictions</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Age&gt;50</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2026-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>W022</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>190</v>
+      </c>
+      <c r="D25" t="n">
+        <v>73</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>152/85</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Fit with Restrictions</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>High BP; Age&gt;50</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2026-07-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>W023</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>52</v>
+      </c>
+      <c r="C26" t="n">
+        <v>188</v>
+      </c>
+      <c r="D26" t="n">
+        <v>93</v>
+      </c>
+      <c r="E26" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Unfit</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>114/75</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Unfit for Duty</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Age&gt;50; Low Fitness</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2027-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>W024</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>38</v>
+      </c>
+      <c r="C27" t="n">
+        <v>178</v>
+      </c>
+      <c r="D27" t="n">
+        <v>74</v>
+      </c>
+      <c r="E27" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>113/72</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Fit for Duty</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2026-12-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>W025</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>187</v>
+      </c>
+      <c r="D28" t="n">
+        <v>81</v>
+      </c>
+      <c r="E28" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Partial Loss</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>152/80</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Fit with Restrictions</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Partial Hearing; High BP</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2026-09-24</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>